--- a/Question_Set2/Programming skills/Advanced Networking in Azure.xlsx
+++ b/Question_Set2/Programming skills/Advanced Networking in Azure.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'Your organization plans to expand its Azure-based services globally, requiring a resilient virtual network design to ensure uninterrupted services across multiple Azure regions. You are tasked with designing a virtual network architecture that facilitates low-latency, secure, and reliable interconnectivity.Which combination of Azure services should you use?', 'ques_type': 2, 'options': ['Azure Virtual WAN &amp;amp Azure ExpressRoute', 'Azure Virtual Network &amp;amp Azure VPN Gateway', 'Azure Load Balancer &amp;amp Azure Application Gateway', 'Azure Traffic Manager &amp;amp Azure Bastion'], 'score': 'Azure Virtual WAN &amp;amp Azure ExpressRoute'}, {'title': "Your company's Azure infrastructure is experiencing an increase in unauthorized access attempts. You need to implement a solution that not only blocks these attempts but also provides advanced threat protection and integrated security management.Which combination of Azure services should you use?", 'ques_type': 2, 'options': ['Azure Firewall &amp;amp Azure Security Center', 'Azure Application Gateway with Web Application Firewall (WAF) &amp;amp Azure Sentinel', 'Azure Bastion &amp;amp Microsoft Entra ID', 'Azure VPN Gateway &amp;amp Azure Monitor'], 'score': 'Azure Firewall &amp;amp Azure Security Center'}, {'title': 'You are responsible for maintaining the network health of your Azure environment. You need to set up a solution that allows real-time monitoring, advanced analytics, and the ability to respond to network performance issues.Which Azure service should you primarily use?', 'ques_type': 2, 'options': ['Azure Network Watcher', 'Azure Monitor', 'Azure Application Insights', 'Azure Service Health'], 'score': 'Azure Network Watcher'}, {'title': 'Your organization operates a hybrid cloud environment with Azure and on-premises data centers. You need a solution that seamlessly connects on-premises networks to Azure, ensuring secure and reliable communication.Which Azure service should you use?', 'ques_type': 2, 'options': ['Azure ExpressRoute', 'Azure Virtual Network', 'Azure VPN Gateway', 'Azure Virtual WAN'], 'score': 'Azure ExpressRoute'}]</t>
+    <t>questions = [
+    {
+        "title": "Your organization plans to expand its Azure-based services globally, requiring a resilient virtual network design to ensure uninterrupted services across multiple Azure regions. You are tasked with designing a virtual network architecture that facilitates low-latency, secure, and reliable interconnectivity.Which combination of Azure services should you use?",
+        "ques_type": 2,
+        "options": [
+            "Azure Virtual WAN &amp;amp Azure ExpressRoute",
+            "Azure Virtual Network &amp;amp Azure VPN Gateway",
+            "Azure Load Balancer &amp;amp Azure Application Gateway",
+            "Azure Traffic Manager &amp;amp Azure Bastion"
+        ],
+        "score": "Azure Virtual WAN &amp;amp Azure ExpressRoute"
+    },
+    {
+        "title": "Your company's Azure infrastructure is experiencing an increase in unauthorized access attempts. You need to implement a solution that not only blocks these attempts but also provides advanced threat protection and integrated security management.Which combination of Azure services should you use?",
+        "ques_type": 2,
+        "options": [
+            "Azure Firewall &amp;amp Azure Security Center",
+            "Azure Application Gateway with Web Application Firewall (WAF) &amp;amp Azure Sentinel",
+            "Azure Bastion &amp;amp Microsoft Entra ID",
+            "Azure VPN Gateway &amp;amp Azure Monitor"
+        ],
+        "score": "Azure Firewall &amp;amp Azure Security Center"
+    },
+    {
+        "title": "You are responsible for maintaining the network health of your Azure environment. You need to set up a solution that allows real-time monitoring, advanced analytics, and the ability to respond to network performance issues.Which Azure service should you primarily use?",
+        "ques_type": 2,
+        "options": [
+            "Azure Network Watcher",
+            "Azure Monitor",
+            "Azure Application Insights",
+            "Azure Service Health"
+        ],
+        "score": "Azure Network Watcher"
+    },
+    {
+        "title": "Your organization operates a hybrid cloud environment with Azure and on-premises data centers. You need a solution that seamlessly connects on-premises networks to Azure, ensuring secure and reliable communication.Which Azure service should you use?",
+        "ques_type": 2,
+        "options": [
+            "Azure ExpressRoute",
+            "Azure Virtual Network",
+            "Azure VPN Gateway",
+            "Azure Virtual WAN"
+        ],
+        "score": "Azure ExpressRoute"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
